--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -54,70 +54,70 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-02-05T13:40:24+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Interop'Santé</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Interop'Santé (http://interopsante.org/)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>code for the medicinal product substance</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/CodeableConcept</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2025-02-05T13:32:30+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Interop'Santé</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>code for the medicinal product substance</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>complex-type</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CodeableConcept</t>
-  </si>
-  <si>
-    <t>Abstract</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -605,100 +605,98 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -886,14 +884,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
@@ -903,13 +901,13 @@
         <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>78</v>
@@ -925,53 +923,53 @@
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s" s="2">
         <v>82</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>76</v>
@@ -1004,7 +1002,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1014,13 +1012,13 @@
         <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>90</v>
@@ -1034,50 +1032,50 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>93</v>
@@ -1089,19 +1087,19 @@
         <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1123,13 +1121,13 @@
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>97</v>
@@ -1145,38 +1143,38 @@
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>101</v>
@@ -1185,7 +1183,7 @@
         <v>102</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>103</v>
@@ -1200,19 +1198,19 @@
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1224,7 +1222,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1234,10 +1232,10 @@
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>107</v>
@@ -1258,26 +1256,26 @@
         <v>112</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
         <v>113</v>
@@ -1289,19 +1287,19 @@
         <v>115</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>106</v>
@@ -1313,7 +1311,7 @@
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>84</v>
@@ -1337,7 +1335,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1347,10 +1345,10 @@
         <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>107</v>
@@ -1371,50 +1369,50 @@
         <v>123</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>119</v>
@@ -1426,7 +1424,7 @@
         <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>84</v>

--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:40:24+00:00</t>
+    <t>2025-02-05T13:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:46:54+00:00</t>
+    <t>2025-02-05T14:43:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:43:21+00:00</t>
+    <t>2025-02-05T14:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:51:15+00:00</t>
+    <t>2025-02-05T14:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:57:31+00:00</t>
+    <t>2025-02-06T08:56:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
